--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H2">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>397.4257912068268</v>
+        <v>37.04381399712155</v>
       </c>
       <c r="R2">
-        <v>3576.832120861441</v>
+        <v>333.394325974094</v>
       </c>
       <c r="S2">
-        <v>0.001720841547146856</v>
+        <v>0.0003478412807593896</v>
       </c>
       <c r="T2">
-        <v>0.001720841547146856</v>
+        <v>0.0003478412807593897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H3">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>1067.170332456857</v>
+        <v>194.5186949473922</v>
       </c>
       <c r="R3">
-        <v>9604.532992111712</v>
+        <v>1750.66825452653</v>
       </c>
       <c r="S3">
-        <v>0.00462081497126233</v>
+        <v>0.001826529848881206</v>
       </c>
       <c r="T3">
-        <v>0.004620814971262331</v>
+        <v>0.001826529848881206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H4">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>483.1884813660507</v>
+        <v>96.99059610626355</v>
       </c>
       <c r="R4">
-        <v>4348.696332294456</v>
+        <v>872.9153649563719</v>
       </c>
       <c r="S4">
-        <v>0.002092191378200649</v>
+        <v>0.0009107413500629523</v>
       </c>
       <c r="T4">
-        <v>0.002092191378200649</v>
+        <v>0.0009107413500629527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H5">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>1526.496681247261</v>
+        <v>230.2984560576587</v>
       </c>
       <c r="R5">
-        <v>13738.47013122535</v>
+        <v>2072.686104518928</v>
       </c>
       <c r="S5">
-        <v>0.006609684043643304</v>
+        <v>0.002162501677560271</v>
       </c>
       <c r="T5">
-        <v>0.006609684043643304</v>
+        <v>0.002162501677560271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>1466.777398188231</v>
+        <v>750.0604268129451</v>
       </c>
       <c r="R6">
-        <v>13200.99658369408</v>
+        <v>6750.543841316506</v>
       </c>
       <c r="S6">
-        <v>0.006351101370531582</v>
+        <v>0.007043064721408609</v>
       </c>
       <c r="T6">
-        <v>0.006351101370531583</v>
+        <v>0.007043064721408611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>3938.600257702275</v>
@@ -883,10 +883,10 @@
         <v>35447.40231932048</v>
       </c>
       <c r="S7">
-        <v>0.01705401891627653</v>
+        <v>0.036983442313604</v>
       </c>
       <c r="T7">
-        <v>0.01705401891627653</v>
+        <v>0.03698344231360401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>1783.301333767199</v>
+        <v>1963.858470889603</v>
       </c>
       <c r="R8">
-        <v>16049.71200390479</v>
+        <v>17674.72623800643</v>
       </c>
       <c r="S8">
-        <v>0.007721640351800813</v>
+        <v>0.01844062400803266</v>
       </c>
       <c r="T8">
-        <v>0.007721640351800813</v>
+        <v>0.01844062400803266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>5633.833737019852</v>
+        <v>4663.066234443141</v>
       </c>
       <c r="R9">
-        <v>50704.50363317867</v>
+        <v>41967.59610998827</v>
       </c>
       <c r="S9">
-        <v>0.02439432814599593</v>
+        <v>0.04378617524050311</v>
       </c>
       <c r="T9">
-        <v>0.02439432814599593</v>
+        <v>0.04378617524050312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H10">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>3342.005953663503</v>
+        <v>670.3475263566363</v>
       </c>
       <c r="R10">
-        <v>30078.05358297153</v>
+        <v>6033.127737209727</v>
       </c>
       <c r="S10">
-        <v>0.01447078378686138</v>
+        <v>0.006294560871618123</v>
       </c>
       <c r="T10">
-        <v>0.01447078378686138</v>
+        <v>0.006294560871618123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H11">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>8973.976232931036</v>
+        <v>3520.024314943319</v>
       </c>
       <c r="R11">
-        <v>80765.78609637931</v>
+        <v>31680.21883448987</v>
       </c>
       <c r="S11">
-        <v>0.03885704321765942</v>
+        <v>0.03305301571024027</v>
       </c>
       <c r="T11">
-        <v>0.03885704321765942</v>
+        <v>0.03305301571024027</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H12">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>4063.195739167794</v>
+        <v>1755.148813368447</v>
       </c>
       <c r="R12">
-        <v>36568.76165251015</v>
+        <v>15796.33932031602</v>
       </c>
       <c r="S12">
-        <v>0.01759351354857393</v>
+        <v>0.01648084107140919</v>
       </c>
       <c r="T12">
-        <v>0.01759351354857393</v>
+        <v>0.01648084107140919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H13">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>12836.51214855604</v>
+        <v>4167.497449209735</v>
       </c>
       <c r="R13">
-        <v>115528.6093370043</v>
+        <v>37507.47704288762</v>
       </c>
       <c r="S13">
-        <v>0.05558170585409942</v>
+        <v>0.03913278612205658</v>
       </c>
       <c r="T13">
-        <v>0.05558170585409943</v>
+        <v>0.03913278612205659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H14">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>21212.17403884594</v>
+        <v>5601.720818120461</v>
       </c>
       <c r="R14">
-        <v>190909.5663496135</v>
+        <v>50415.48736308415</v>
       </c>
       <c r="S14">
-        <v>0.09184806622768824</v>
+        <v>0.05260013841941231</v>
       </c>
       <c r="T14">
-        <v>0.09184806622768824</v>
+        <v>0.05260013841941232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H15">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>56959.06838966894</v>
+        <v>29414.8821469922</v>
       </c>
       <c r="R15">
-        <v>512631.6155070204</v>
+        <v>264733.9393229298</v>
       </c>
       <c r="S15">
-        <v>0.2466310278305807</v>
+        <v>0.2762056380099337</v>
       </c>
       <c r="T15">
-        <v>0.2466310278305807</v>
+        <v>0.2762056380099338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H16">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>25789.66535910686</v>
+        <v>14666.8008162601</v>
       </c>
       <c r="R16">
-        <v>232106.9882319617</v>
+        <v>132001.2073463409</v>
       </c>
       <c r="S16">
-        <v>0.1116684639469437</v>
+        <v>0.1377212071350752</v>
       </c>
       <c r="T16">
-        <v>0.1116684639469437</v>
+        <v>0.1377212071350752</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H17">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>81475.11809440273</v>
+        <v>34825.45441404683</v>
       </c>
       <c r="R17">
-        <v>733276.0628496244</v>
+        <v>313429.0897264215</v>
       </c>
       <c r="S17">
-        <v>0.3527847748627351</v>
+        <v>0.3270108922194424</v>
       </c>
       <c r="T17">
-        <v>0.3527847748627352</v>
+        <v>0.3270108922194425</v>
       </c>
     </row>
   </sheetData>
